--- a/booking-api-test-report.xlsx
+++ b/booking-api-test-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jmeter\apache-jmeter-5.6.3\bin\Task 01 Booking JMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCE6F5-2B83-4231-9C6E-27FA3F47F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A85F6-300C-46C6-862D-EA3054D58672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>I1</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Bottleneck Calculation</t>
+  </si>
+  <si>
+    <t>Throughput = 29.166 Seconds</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1210,7 @@
   <dimension ref="C1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1346,7 @@
     <row r="19" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="89"/>
       <c r="D19" s="90" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E19" s="91"/>
     </row>
